--- a/info/logData/Record adila.xlsx
+++ b/info/logData/Record adila.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11115" windowHeight="4245" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11115" windowHeight="4245" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Auto Sanding" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
   <si>
     <t>Shaft Number</t>
   </si>
@@ -85,12 +85,6 @@
     <t>D828</t>
   </si>
   <si>
-    <t>Bit lưu: D903.0</t>
-  </si>
-  <si>
-    <t>Bit Reset: D903.0</t>
-  </si>
-  <si>
     <t>Motor-Polishing</t>
   </si>
   <si>
@@ -118,12 +112,6 @@
     <t>D852</t>
   </si>
   <si>
-    <t>Bit lưu: D905.0</t>
-  </si>
-  <si>
-    <t>Bit Reset: D905.1</t>
-  </si>
-  <si>
     <t>Diam_Reading</t>
   </si>
   <si>
@@ -166,12 +154,6 @@
     <t>D814</t>
   </si>
   <si>
-    <t>Bit lưu: D904.0</t>
-  </si>
-  <si>
-    <t>Bit Reset: D904.1</t>
-  </si>
-  <si>
     <t>Meas_type</t>
   </si>
   <si>
@@ -182,6 +164,90 @@
   </si>
   <si>
     <t>D812</t>
+  </si>
+  <si>
+    <t>D856</t>
+  </si>
+  <si>
+    <t>Bit lưu: D910.0</t>
+  </si>
+  <si>
+    <t>Bit Reset: D911.0</t>
+  </si>
+  <si>
+    <t>Bit lưu: D912.0</t>
+  </si>
+  <si>
+    <t>Bit Reset: D913.0</t>
+  </si>
+  <si>
+    <t>Bit lưu: D914.0</t>
+  </si>
+  <si>
+    <t>Bit Reset: D915.0</t>
+  </si>
+  <si>
+    <t>D820</t>
+  </si>
+  <si>
+    <t>RECORD DATA TIP OD</t>
+  </si>
+  <si>
+    <t>RECORD DATA POLISHING</t>
+  </si>
+  <si>
+    <t>DATABASE TỪ SERVE GỬI TỚI PLC.1 (SANDING)</t>
+  </si>
+  <si>
+    <t>RECORD DATA SANDING (TR.1)</t>
+  </si>
+  <si>
+    <t>Freq- Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bit D904 = 1 : ON lên khi thay đổi mã hàng quét barcode rồi PLC tự reset             </t>
+  </si>
+  <si>
+    <t>Data Gửi từ Trạm 1 (PLC.1 Sand) qua Trạm 3 (PLC.3 Polish)</t>
+  </si>
+  <si>
+    <t>Freq.2</t>
+  </si>
+  <si>
+    <t>Shaft Count</t>
+  </si>
+  <si>
+    <t>d830</t>
+  </si>
+  <si>
+    <t>Bit D900.0 ON gửi data qua TR3 (PLC3)</t>
+  </si>
+  <si>
+    <t>Bit D901.0  báo gửi data hoàn thành reset D900.0</t>
+  </si>
+  <si>
+    <t>D828 (32bit)</t>
+  </si>
+  <si>
+    <t>DATABASE TỪ SERVE GỬI TỚI PLC.2 (OD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bit D905 = 1 : ON lên khi thay đổi mã hàng quét barcode rồi PLC tự reset             </t>
+  </si>
+  <si>
+    <t>Freq_Target</t>
+  </si>
+  <si>
+    <t>Formular PO</t>
+  </si>
+  <si>
+    <t>d820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bit D906 = 1 : ON lên khi thay đổi mã hàng quét barcode rồi PLC tự reset </t>
+  </si>
+  <si>
+    <t>Data Nhận từ Trạm 1 (PLC.1 Sand) qua.</t>
   </si>
 </sst>
 </file>
@@ -500,30 +566,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J8"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A14" sqref="A14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -550,7 +623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -579,97 +652,162 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-    </row>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="16" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -678,21 +816,21 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -701,113 +839,284 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
         <v>39</v>
       </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-    </row>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="13.7109375" customWidth="1"/>
+    <col min="1" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-    </row>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/info/logData/Record adila.xlsx
+++ b/info/logData/Record adila.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11115" windowHeight="4245" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11115" windowHeight="4245"/>
   </bookViews>
   <sheets>
     <sheet name="Auto Sanding" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
   <si>
     <t>Shaft Number</t>
   </si>
@@ -175,12 +175,6 @@
     <t>Bit Reset: D911.0</t>
   </si>
   <si>
-    <t>Bit lưu: D912.0</t>
-  </si>
-  <si>
-    <t>Bit Reset: D913.0</t>
-  </si>
-  <si>
     <t>Bit lưu: D914.0</t>
   </si>
   <si>
@@ -190,12 +184,6 @@
     <t>D820</t>
   </si>
   <si>
-    <t>RECORD DATA TIP OD</t>
-  </si>
-  <si>
-    <t>RECORD DATA POLISHING</t>
-  </si>
-  <si>
     <t>DATABASE TỪ SERVE GỬI TỚI PLC.1 (SANDING)</t>
   </si>
   <si>
@@ -205,9 +193,6 @@
     <t>Freq- Target</t>
   </si>
   <si>
-    <t xml:space="preserve">Bit D904 = 1 : ON lên khi thay đổi mã hàng quét barcode rồi PLC tự reset             </t>
-  </si>
-  <si>
     <t>Data Gửi từ Trạm 1 (PLC.1 Sand) qua Trạm 3 (PLC.3 Polish)</t>
   </si>
   <si>
@@ -217,12 +202,6 @@
     <t>Shaft Count</t>
   </si>
   <si>
-    <t>d830</t>
-  </si>
-  <si>
-    <t>Bit D900.0 ON gửi data qua TR3 (PLC3)</t>
-  </si>
-  <si>
     <t>Bit D901.0  báo gửi data hoàn thành reset D900.0</t>
   </si>
   <si>
@@ -232,9 +211,6 @@
     <t>DATABASE TỪ SERVE GỬI TỚI PLC.2 (OD)</t>
   </si>
   <si>
-    <t xml:space="preserve">Bit D905 = 1 : ON lên khi thay đổi mã hàng quét barcode rồi PLC tự reset             </t>
-  </si>
-  <si>
     <t>Freq_Target</t>
   </si>
   <si>
@@ -244,10 +220,58 @@
     <t>d820</t>
   </si>
   <si>
-    <t xml:space="preserve">Bit D906 = 1 : ON lên khi thay đổi mã hàng quét barcode rồi PLC tự reset </t>
-  </si>
-  <si>
     <t>Data Nhận từ Trạm 1 (PLC.1 Sand) qua.</t>
+  </si>
+  <si>
+    <t>RECORD DATA POLISHING TR.3 (PLC.3)</t>
+  </si>
+  <si>
+    <t>DATABASE TỪ SERVE GỬI TỚI PLC.3 (Polishing)</t>
+  </si>
+  <si>
+    <t>RECORD DATA TIP OD TR.2(PLC.2)</t>
+  </si>
+  <si>
+    <t>Bit D900.0 ON gửi data qua TR.3 (PLC3)</t>
+  </si>
+  <si>
+    <t>Cách Record data: 3</t>
+  </si>
+  <si>
+    <t>Production (save 5 test)</t>
+  </si>
+  <si>
+    <t>D832 = 2</t>
+  </si>
+  <si>
+    <t>Pilot (Save all)</t>
+  </si>
+  <si>
+    <t>D832 = 4</t>
+  </si>
+  <si>
+    <t>Save Nothing</t>
+  </si>
+  <si>
+    <t>D832 = 0</t>
+  </si>
+  <si>
+    <t>Bit lưu: D874.0</t>
+  </si>
+  <si>
+    <t>Bit Reset: D875.0</t>
+  </si>
+  <si>
+    <t>D866</t>
+  </si>
+  <si>
+    <t>D868</t>
+  </si>
+  <si>
+    <t>D870</t>
+  </si>
+  <si>
+    <t>D274 thay bằng D872 ( Read Diam OD)</t>
   </si>
 </sst>
 </file>
@@ -284,8 +308,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +615,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -596,7 +623,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -666,77 +693,98 @@
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
+      <c r="A15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -747,7 +795,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +815,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -827,6 +875,9 @@
       <c r="I3" t="s">
         <v>39</v>
       </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -850,6 +901,9 @@
       <c r="I4" t="s">
         <v>40</v>
       </c>
+      <c r="J4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -873,21 +927,24 @@
       <c r="I5" t="s">
         <v>41</v>
       </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -900,6 +957,9 @@
       <c r="D10" t="s">
         <v>31</v>
       </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -934,11 +994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>68</v>
-      </c>
-    </row>
+    <row r="14" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -968,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,7 +1043,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1042,32 +1098,32 @@
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1075,34 +1131,24 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>72</v>
-      </c>
-    </row>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/info/logData/Record adila.xlsx
+++ b/info/logData/Record adila.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11115" windowHeight="4245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11115" windowHeight="4245" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Auto Sanding" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
   <si>
     <t>Shaft Number</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Freq.1-Reading</t>
   </si>
   <si>
-    <t>Freq-Target</t>
-  </si>
-  <si>
     <t>Motor-Sanding</t>
   </si>
   <si>
@@ -169,12 +166,6 @@
     <t>D856</t>
   </si>
   <si>
-    <t>Bit lưu: D910.0</t>
-  </si>
-  <si>
-    <t>Bit Reset: D911.0</t>
-  </si>
-  <si>
     <t>Bit lưu: D914.0</t>
   </si>
   <si>
@@ -190,24 +181,9 @@
     <t>RECORD DATA SANDING (TR.1)</t>
   </si>
   <si>
-    <t>Freq- Target</t>
-  </si>
-  <si>
-    <t>Data Gửi từ Trạm 1 (PLC.1 Sand) qua Trạm 3 (PLC.3 Polish)</t>
-  </si>
-  <si>
-    <t>Freq.2</t>
-  </si>
-  <si>
     <t>Shaft Count</t>
   </si>
   <si>
-    <t>Bit D901.0  báo gửi data hoàn thành reset D900.0</t>
-  </si>
-  <si>
-    <t>D828 (32bit)</t>
-  </si>
-  <si>
     <t>DATABASE TỪ SERVE GỬI TỚI PLC.2 (OD)</t>
   </si>
   <si>
@@ -220,9 +196,6 @@
     <t>d820</t>
   </si>
   <si>
-    <t>Data Nhận từ Trạm 1 (PLC.1 Sand) qua.</t>
-  </si>
-  <si>
     <t>RECORD DATA POLISHING TR.3 (PLC.3)</t>
   </si>
   <si>
@@ -232,9 +205,6 @@
     <t>RECORD DATA TIP OD TR.2(PLC.2)</t>
   </si>
   <si>
-    <t>Bit D900.0 ON gửi data qua TR.3 (PLC3)</t>
-  </si>
-  <si>
     <t>Cách Record data: 3</t>
   </si>
   <si>
@@ -256,12 +226,6 @@
     <t>D832 = 0</t>
   </si>
   <si>
-    <t>Bit lưu: D874.0</t>
-  </si>
-  <si>
-    <t>Bit Reset: D875.0</t>
-  </si>
-  <si>
     <t>D866</t>
   </si>
   <si>
@@ -271,14 +235,68 @@
     <t>D870</t>
   </si>
   <si>
-    <t>D274 thay bằng D872 ( Read Diam OD)</t>
+    <t>Bit lưu data: D874.0</t>
+  </si>
+  <si>
+    <t>Bit Reset lưu data: D875.0</t>
+  </si>
+  <si>
+    <t>(giữ nguyên giá trị)</t>
+  </si>
+  <si>
+    <t>Tất cả các thanh ghi sử dụng data type: Unsigned 16BIN</t>
+  </si>
+  <si>
+    <t>Bit báo nhận data: d876.0 ( mới thêm vào khi bắt đầu quét barcode đọc data ON bit này lên)</t>
+  </si>
+  <si>
+    <t>Bit reset nhận data: d877.0 (mới thêm vào nhận data xong reset D876.0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D872 ( Read Diam OD) để xem giá trị OD hiện tại ko lưu thanh ghi này</t>
+  </si>
+  <si>
+    <t>Bit lưu data : D910.0</t>
+  </si>
+  <si>
+    <t>Bit Reset lưu data : D911.0</t>
+  </si>
+  <si>
+    <t>Giữ nguyên</t>
+  </si>
+  <si>
+    <t>Bit báo nhận data: d907.0 ( mới thêm vào khi bắt đầu quét barcode đọc data ON bit này lên)</t>
+  </si>
+  <si>
+    <t>Bit reset nhận data: d908.0 (mới thêm vào nhận data xong reset D908.0)</t>
+  </si>
+  <si>
+    <t>Freq- Target Sand</t>
+  </si>
+  <si>
+    <t>Freq-Target  Sand</t>
+  </si>
+  <si>
+    <t>Freq.2-Reading Polish</t>
+  </si>
+  <si>
+    <t>Freq-Target Polish</t>
+  </si>
+  <si>
+    <t>Giữ Nguyên</t>
+  </si>
+  <si>
+    <t>Bit báo nhận data: d912.0 ( mới thêm vào khi bắt đầu quét barcode đọc data ON bit này lên)</t>
+  </si>
+  <si>
+    <t>Bit reset nhận data: d913.0 (mới thêm vào nhận data xong reset D912.0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,13 +305,28 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -308,11 +341,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,37 +631,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -632,158 +670,180 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-    </row>
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" t="s">
-        <v>75</v>
-      </c>
-    </row>
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>52</v>
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
       <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>55</v>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -792,10 +852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,12 +875,12 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -832,171 +892,382 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="7" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>76</v>
-      </c>
+      <c r="A7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>77</v>
-      </c>
+      <c r="A8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>81</v>
+      <c r="A10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
+      <c r="E11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
+      <c r="A12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
         <v>45</v>
       </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
       <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1005,162 +1276,6 @@
     <row r="22" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/info/logData/Record adila.xlsx
+++ b/info/logData/Record adila.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCompany\8.SourceCode\3.Projects\20220820aldilaTipOdFreqMrDiepMrKhai\info\logData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC603E8-35BF-4926-A3D7-BA536610BA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11115" windowHeight="4245" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto Sanding" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
   <si>
     <t>Shaft Number</t>
   </si>
@@ -247,12 +248,6 @@
     <t>Tất cả các thanh ghi sử dụng data type: Unsigned 16BIN</t>
   </si>
   <si>
-    <t>Bit báo nhận data: d876.0 ( mới thêm vào khi bắt đầu quét barcode đọc data ON bit này lên)</t>
-  </si>
-  <si>
-    <t>Bit reset nhận data: d877.0 (mới thêm vào nhận data xong reset D876.0)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> D872 ( Read Diam OD) để xem giá trị OD hiện tại ko lưu thanh ghi này</t>
   </si>
   <si>
@@ -268,9 +263,6 @@
     <t>Bit báo nhận data: d907.0 ( mới thêm vào khi bắt đầu quét barcode đọc data ON bit này lên)</t>
   </si>
   <si>
-    <t>Bit reset nhận data: d908.0 (mới thêm vào nhận data xong reset D908.0)</t>
-  </si>
-  <si>
     <t>Freq- Target Sand</t>
   </si>
   <si>
@@ -284,18 +276,12 @@
   </si>
   <si>
     <t>Giữ Nguyên</t>
-  </si>
-  <si>
-    <t>Bit báo nhận data: d912.0 ( mới thêm vào khi bắt đầu quét barcode đọc data ON bit này lên)</t>
-  </si>
-  <si>
-    <t>Bit reset nhận data: d913.0 (mới thêm vào nhận data xong reset D912.0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,10 +333,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,11 +616,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +665,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
         <v>4</v>
@@ -719,131 +705,120 @@
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="A6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
+      <c r="A13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>49</v>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
       <c r="C16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -851,11 +826,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,26 +972,22 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1030,7 +1001,7 @@
     </row>
     <row r="11" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1113,10 +1084,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1155,10 +1126,10 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -1195,35 +1166,31 @@
     </row>
     <row r="4" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1259,7 +1226,7 @@
     </row>
     <row r="14" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
